--- a/reports/Summary_report_2022-12-28.xlsx
+++ b/reports/Summary_report_2022-12-28.xlsx
@@ -66,8 +66,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -425,10 +425,19 @@
     <col width="24.5703125" customWidth="1" min="2" max="2"/>
     <col width="24.140625" customWidth="1" min="3" max="3"/>
     <col width="27.5703125" customWidth="1" min="4" max="4"/>
+    <col width="30.5703125" customWidth="1" min="5" max="5"/>
+    <col width="24.7109375" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="23.140625" customWidth="1" min="8" max="8"/>
+    <col width="22.42578125" customWidth="1" min="9" max="9"/>
     <col width="26.5703125" customWidth="1" min="10" max="10"/>
+    <col width="22.5703125" customWidth="1" min="11" max="11"/>
+    <col width="23.140625" customWidth="1" min="12" max="12"/>
+    <col width="29.42578125" customWidth="1" min="14" max="14"/>
     <col width="22" customWidth="1" min="15" max="15"/>
+    <col width="19.5703125" customWidth="1" min="16" max="16"/>
+    <col width="21.140625" customWidth="1" min="17" max="17"/>
+    <col width="29.28515625" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -437,79 +446,93 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n">
-        <v>44923.62453399305</v>
-      </c>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
+      <c r="B1" s="3" t="n">
+        <v>44922.66809027778</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>44923.6680350463</v>
+      </c>
+      <c r="D1" s="3" t="n">
+        <v>44923.66817543982</v>
+      </c>
+      <c r="E1" s="3" t="n">
+        <v>44923.66820858797</v>
+      </c>
+      <c r="F1" s="3" t="n">
+        <v>44923.66813384259</v>
+      </c>
+      <c r="G1" s="3" t="n">
+        <v>44923.66824758102</v>
+      </c>
+      <c r="H1" s="3" t="n">
+        <v>44923.66829282408</v>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
     </row>
-    <row r="2" customFormat="1" s="3">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2" customFormat="1" s="2">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Tank Name</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>Overflow</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>Sludge</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>Bilge</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>Waste</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>MEoil</t>
         </is>
@@ -521,8 +544,26 @@
           <t>Tank Capacity</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>29</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.41</v>
+      </c>
       <c r="D3" t="n">
         <v>18.04</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.62</v>
       </c>
     </row>
     <row r="4">
@@ -531,8 +572,26 @@
           <t>Current Capacity</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.29</v>
+      </c>
       <c r="D4" t="n">
-        <v>0.82</v>
+        <v>1.47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.62</v>
       </c>
     </row>
     <row r="5">
@@ -541,8 +600,26 @@
           <t>Remaining Capacity</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18.12</v>
+      </c>
       <c r="D5" t="n">
-        <v>17.22</v>
+        <v>16.57</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -551,8 +628,26 @@
           <t>Percentage</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>50.97</v>
+      </c>
+      <c r="C6" t="n">
+        <v>84.63</v>
+      </c>
       <c r="D6" t="n">
-        <v>95.45</v>
+        <v>91.84999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>58.73</v>
+      </c>
+      <c r="F6" t="n">
+        <v>58.73</v>
+      </c>
+      <c r="G6" t="n">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>68.84999999999999</v>
       </c>
     </row>
   </sheetData>
